--- a/Task2/Results/GroupByPropertyID/AA.xlsx
+++ b/Task2/Results/GroupByPropertyID/AA.xlsx
@@ -460,7 +460,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>12173</v>
+        <v>11002</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
